--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Los_Angeles_Clippers.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Los_Angeles_Clippers.xlsx
@@ -581,86 +581,86 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="G2" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>521</v>
+        <v>437</v>
       </c>
       <c r="I2" t="n">
-        <v>0.422</v>
+        <v>0.389</v>
       </c>
       <c r="J2" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K2" t="n">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L2" t="n">
-        <v>0.318</v>
+        <v>0.326</v>
       </c>
       <c r="M2" t="n">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="N2" t="n">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="O2" t="n">
-        <v>0.488</v>
+        <v>0.452</v>
       </c>
       <c r="P2" t="n">
-        <v>0.484</v>
+        <v>0.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="S2" t="n">
-        <v>0.88</v>
+        <v>0.787</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U2" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="V2" t="n">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="W2" t="n">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="X2" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="n">
-        <v>599</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3">
@@ -669,86 +669,86 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="G3" t="n">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="H3" t="n">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.395</v>
+        <v>0.422</v>
       </c>
       <c r="J3" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K3" t="n">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.329</v>
+        <v>0.318</v>
       </c>
       <c r="M3" t="n">
+        <v>156</v>
+      </c>
+      <c r="N3" t="n">
+        <v>320</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="Q3" t="n">
         <v>95</v>
       </c>
-      <c r="N3" t="n">
-        <v>205</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>34</v>
-      </c>
       <c r="R3" t="n">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="S3" t="n">
-        <v>0.791</v>
+        <v>0.88</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="V3" t="n">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="W3" t="n">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AA3" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="n">
-        <v>431</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="G4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I4" t="n">
-        <v>0.431</v>
+        <v>0.434</v>
       </c>
       <c r="J4" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L4" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O4" t="n">
-        <v>0.437</v>
+        <v>0.427</v>
       </c>
       <c r="P4" t="n">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V4" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="n">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
@@ -845,86 +845,86 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eric Bledsoe</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H5" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I5" t="n">
-        <v>0.412</v>
+        <v>0.459</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L5" t="n">
-        <v>0.264</v>
+        <v>0.338</v>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="n">
+        <v>126</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>36</v>
+      </c>
+      <c r="R5" t="n">
+        <v>46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="T5" t="n">
+        <v>38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>94</v>
+      </c>
+      <c r="V5" t="n">
         <v>132</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>41</v>
-      </c>
-      <c r="R5" t="n">
-        <v>49</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>81</v>
-      </c>
-      <c r="V5" t="n">
-        <v>99</v>
-      </c>
       <c r="W5" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AB5" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -933,86 +933,86 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Eric Bledsoe</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H6" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="I6" t="n">
-        <v>0.449</v>
+        <v>0.408</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L6" t="n">
-        <v>0.338</v>
+        <v>0.267</v>
       </c>
       <c r="M6" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N6" t="n">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O6" t="n">
-        <v>0.513</v>
+        <v>0.486</v>
       </c>
       <c r="P6" t="n">
-        <v>0.511</v>
+        <v>0.455</v>
       </c>
       <c r="Q6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R6" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="S6" t="n">
-        <v>0.783</v>
+        <v>0.827</v>
       </c>
       <c r="T6" t="n">
+        <v>19</v>
+      </c>
+      <c r="U6" t="n">
+        <v>83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>102</v>
+      </c>
+      <c r="W6" t="n">
+        <v>90</v>
+      </c>
+      <c r="X6" t="n">
         <v>35</v>
       </c>
-      <c r="U6" t="n">
-        <v>87</v>
-      </c>
-      <c r="V6" t="n">
-        <v>122</v>
-      </c>
-      <c r="W6" t="n">
-        <v>56</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="AA6" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -1028,22 +1028,22 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H7" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I7" t="n">
-        <v>0.667</v>
+        <v>0.669</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1053,52 +1053,52 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
+        <v>95</v>
+      </c>
+      <c r="N7" t="n">
+        <v>142</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>71</v>
+      </c>
+      <c r="R7" t="n">
         <v>92</v>
       </c>
-      <c r="N7" t="n">
-        <v>138</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>88</v>
-      </c>
       <c r="S7" t="n">
-        <v>0.761</v>
+        <v>0.772</v>
       </c>
       <c r="T7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U7" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="V7" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="W7" t="n">
+        <v>29</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
         <v>28</v>
       </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>24</v>
-      </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AB7" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
@@ -1114,31 +1114,31 @@
         <v>33</v>
       </c>
       <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
-        <v>13</v>
-      </c>
       <c r="F8" t="n">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" t="n">
-        <v>0.521</v>
+        <v>0.515</v>
       </c>
       <c r="J8" t="n">
         <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="n">
-        <v>0.438</v>
+        <v>0.432</v>
       </c>
       <c r="M8" t="n">
         <v>18</v>
@@ -1150,7 +1150,7 @@
         <v>0.783</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
@@ -1165,22 +1165,22 @@
         <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1202,22 +1202,22 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G9" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I9" t="n">
-        <v>0.649</v>
+        <v>0.65</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -1229,10 +1229,10 @@
         <v>0.667</v>
       </c>
       <c r="M9" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N9" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O9" t="n">
         <v>0.649</v>
@@ -1241,40 +1241,40 @@
         <v>0.658</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S9" t="n">
-        <v>0.595</v>
+        <v>0.614</v>
       </c>
       <c r="T9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W9" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB9" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -1290,64 +1290,64 @@
         <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I10" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L10" t="n">
-        <v>0.385</v>
+        <v>0.379</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O10" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="P10" t="n">
-        <v>0.521</v>
+        <v>0.518</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S10" t="n">
-        <v>0.75</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
@@ -1356,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -1547,86 +1547,86 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Justise Winslow</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I13" t="n">
-        <v>0.375</v>
+        <v>0.458</v>
       </c>
       <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>16</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="T13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="U13" t="n">
+        <v>13</v>
+      </c>
+      <c r="V13" t="n">
         <v>14</v>
       </c>
-      <c r="N13" t="n">
-        <v>32</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="W13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>27</v>
-      </c>
-      <c r="V13" t="n">
-        <v>35</v>
-      </c>
-      <c r="W13" t="n">
-        <v>17</v>
-      </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -1635,86 +1635,86 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Justise Winslow</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I14" t="n">
-        <v>0.391</v>
+        <v>0.375</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="M14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4</v>
+        <v>0.438</v>
       </c>
       <c r="P14" t="n">
-        <v>0.457</v>
+        <v>0.388</v>
       </c>
       <c r="Q14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>0.923</v>
+        <v>0.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
+        <v>27</v>
+      </c>
+      <c r="V14" t="n">
+        <v>35</v>
+      </c>
+      <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="n">
         <v>11</v>
       </c>
-      <c r="V14" t="n">
-        <v>12</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8</v>
-      </c>
       <c r="AB14" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1898,77 +1898,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>6025</v>
+        <v>6265</v>
       </c>
       <c r="G17" t="n">
-        <v>977</v>
+        <v>1017</v>
       </c>
       <c r="H17" t="n">
-        <v>2192</v>
+        <v>2277</v>
       </c>
       <c r="I17" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="J17" t="n">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="K17" t="n">
-        <v>913</v>
+        <v>945</v>
       </c>
       <c r="L17" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="M17" t="n">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="N17" t="n">
-        <v>1279</v>
+        <v>1332</v>
       </c>
       <c r="O17" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="P17" t="n">
-        <v>0.519</v>
+        <v>0.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="R17" t="n">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="S17" t="n">
-        <v>0.793</v>
+        <v>0.798</v>
       </c>
       <c r="T17" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="U17" t="n">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="V17" t="n">
-        <v>1110</v>
+        <v>1148</v>
       </c>
       <c r="W17" t="n">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="X17" t="n">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Y17" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="n">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="AA17" t="n">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="AB17" t="n">
-        <v>2643</v>
+        <v>2757</v>
       </c>
     </row>
   </sheetData>
